--- a/Team Meetings.xlsx
+++ b/Team Meetings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB7BE8-BEB9-4F09-9AC8-9EE3D7514D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3A00C-CAE7-4990-8FA7-274BA47E7CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,15 +212,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -502,64 +509,64 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -568,15 +575,15 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -585,15 +592,15 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -602,19 +609,19 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>17</v>
@@ -626,8 +633,8 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>

--- a/Team Meetings.xlsx
+++ b/Team Meetings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3A00C-CAE7-4990-8FA7-274BA47E7CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24589B9F-9336-446D-B5D2-F05CCA12A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,16 +206,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -509,141 +502,141 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C2" sqref="C2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Team Meetings.xlsx
+++ b/Team Meetings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24589B9F-9336-446D-B5D2-F05CCA12A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A05872-4E8B-4BB1-8309-83E7F94D5518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="720" windowWidth="17304" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,15 +502,15 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,10 +565,10 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,10 +582,10 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -599,10 +599,10 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -614,7 +614,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -626,7 +626,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>18</v>
